--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/21_Bursa_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/21_Bursa_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB5AA062-66A8-464A-ACB3-6720691BFFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E31E522-0FE4-4D9F-91DE-E60764BEF121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{8746AE8D-1902-47DA-98A1-621770CCAD9E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{CC644F7C-B2D2-4D22-A2B7-F9B38BC5192C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="105" r:id="rId1"/>
@@ -939,13 +939,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D0B5B1E9-D2A2-4AFC-83B7-C12327C6AFB3}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{ACB1E992-E036-4A6D-BA52-406243212880}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{6C1C3A7A-3C98-4D51-889B-5A8057AFC36B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{7369584E-3B7F-43E7-9597-E5141A47FECE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{92F05E64-EE2D-4902-BEF1-3BF8F1D1EB0F}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{E4C52156-195A-49BD-957B-462EC92CD0B1}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{18EE519E-80C2-4348-BE18-F39D12622F45}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{506D689C-07D1-4B6F-A193-810027707272}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{20D90C52-3607-4E5E-A5D9-C611B62DB56D}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{320B4B03-0543-4931-9B4B-39DBA272CC6D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{89E3BF3E-B7DA-4F0D-B7F0-ADFF623F0C48}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{5D309BA5-6454-49CB-A3A4-324AA3F071FB}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{51FE6DEA-5E9A-4205-B34C-34C3E090DD27}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C5E00F04-DFE9-4637-818E-AB04C5377B48}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4A57AA-8A28-4920-B176-E0A6D8DD4F59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC3FA95-7D85-4963-8755-80DF3FD8733A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2592,18 +2592,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{86CA2B56-8B11-4E98-92BA-E4F0DE68DFCF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0E6D4EF1-4CC1-4317-93E3-3BE1E468E3CD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DA0CB95E-69EA-4CE1-B3AB-FD74E93ECA77}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{926C44C5-780D-4A6A-8464-518E6519FA03}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{587B2ECB-DFB5-479F-BF1E-4DC5D6BF0E67}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8124DBD1-048D-4607-A6FA-208FAF84AD9B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{51C9B61A-60B3-4321-8A5E-A0A17520D27C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BFE5B5B4-0A36-4DC2-9F4C-E19CFDC13D2E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{53DB4A45-A034-499E-85FD-D6213860D6AB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{425C52EC-2A08-420E-9149-7ED87148CAAA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{22D23A32-8661-44C5-B6B9-3BB27B50A9D9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{23AA5910-DAC3-4EE6-8269-B5E27A310B86}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E8101DF-F836-41F3-BA73-D627A7742D78}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7165494E-601E-42E9-AF8C-1778A37D8BED}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B7355762-D9DC-4634-9AB7-ED1BF1E24C9C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4900DEC7-4A9A-4332-A215-22BF3024DE5F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E00D9B0C-A62E-4D2D-940D-9A032435E9B3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A7EF2080-64A4-4476-83CE-048F2EB04E4B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97E20103-4A80-4375-978E-FD4EE9071A0F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8BA72EF-352F-4009-BFAA-AC104F0332AF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{789D5A4C-3B97-4E22-BE8F-600347C463EC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{52C704F6-75DB-4EE2-8A39-EF2F946003A0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83CE0552-A986-478D-BD4A-060FB10ACE89}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{124C4056-927E-49E9-8AFE-F8E8518D95DB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2616,7 +2616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C615AD1-7738-4A28-8640-64329F5F1BBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82279D4C-823F-4066-9B71-A0DF12DBBDE8}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3888,18 +3888,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F51CA01-4442-4233-B220-893C1195A506}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A54D5BC-8DFC-4453-A3EC-BE4E72035C98}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0D61A2F4-48EB-457A-A14A-C7D42652FA80}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{128EB7A5-03B6-4330-BE62-6B01BF187AB8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CB169163-AB4D-4713-AD4E-A005715DE551}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FD5348F1-1F76-4470-B847-BDF40B933CB6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{495A5101-8CAA-4189-879B-FA03337C7E14}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DFBF2ED5-B8B7-47BD-ACA7-20ED24B6EE0A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{69B8B2DC-136D-40E2-B87C-DA50A5828483}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CCF2B354-F278-4F2C-91DB-2D9B2A1FEBB8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CCEA705F-0808-4DDB-9BA3-6ADD97C22824}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7AB5F5A6-846E-434B-BE27-DE56126A2A21}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F2B5E40-4A16-48AE-B72C-12166E6A70FB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{373F3207-E4F4-4AF3-894E-C3A99777C445}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4DA9B946-07EF-4CE2-AFDB-0DA042EDC1E1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{80B289A3-B50F-4E95-A126-DA153BA9A347}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{58A01C52-9696-4A37-89B7-400FADB954E9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{16609F1B-5715-4229-92F1-5C3BB50E55A7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C83D8DAA-7E39-4941-A358-26F4324CDD59}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7113C7E8-F271-4307-8B74-F5AEC20D8703}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C75A837D-08CD-444D-8B4A-B05061F12646}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BAEE8D94-D747-4D8D-A4A8-75C2A5622D9A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5C5EFDF8-2D76-47F9-AA61-7F54963074E2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D94F8E2E-B84A-4254-9FD6-10F07F83C49E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3912,7 +3912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7C5F85-A3C0-4FE9-ACB5-1141E6FFFF87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8624B3-3495-4757-A0BA-47E8923225A6}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5184,18 +5184,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{38D9772F-E68E-4EA0-8DD0-3C1AA287FC34}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{977D614A-43C4-4055-8E60-6F5D8107C72E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{68305468-71B7-4508-A96E-CB55A2462123}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6BB15677-8D03-45D5-A92E-B7DD2667245A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7448C555-9D57-40C0-BC44-2BD80FB5DF2A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B08116BA-C06A-4201-9532-7D2091F24A9E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89076549-FF4C-4F79-823D-1CB2376D5159}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84CFDE2A-2E5F-4F93-ADC3-129D87FAFA63}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{440779A2-4D5F-491B-91BA-E82A8EA89988}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8334EE30-6951-4732-B542-4C08ED8703AC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8EB26472-59AB-4096-94A5-731CB1615259}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FCD0776F-CB74-438A-8C11-D434FB38A8E3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B91CC7C2-E84D-4DDC-8051-434C55922C60}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{860A8D22-EDAF-4AFD-B8FB-C938D6E0EAFA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F289D1FF-84E1-4D85-AF0A-70C43B873D75}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D3641326-D9E2-4CFF-A51A-2609DD447752}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C9171420-3865-4AD6-8A35-5369811C5095}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D405D7F7-47FD-49A9-BEAB-B7D6B367DDAB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{976B483B-1004-4624-A0CF-51CF0B568D6A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5989BFE0-F644-4473-9393-457D76A9201F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4CC2345C-62C3-44A4-8B44-9D24101E7D12}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C0AADA5A-AA7F-4F96-8A0A-62807DBA32D2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{58DE7C1B-3407-468D-B96B-7464F7F6C4E3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DE9291A9-B3E8-4D75-A11D-B43F579FAD7C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5208,7 +5208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF493AD0-FCFE-457C-8B84-787DB9453C09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D0858D-820F-49AE-822F-8933D44B192F}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6470,18 +6470,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1640475B-F579-4C71-A647-68E53EEA8C13}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E0C26585-7356-4574-A7F8-EF7CB2E2012A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{07CDBC3D-048C-4B5E-AD80-3A624A3C9178}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5C98CAF1-8404-4CDD-9BDF-904757142B9A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DCC71C86-68EF-4DDA-9E8B-A51B6E3AF736}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DC0EA0C9-7ABC-43BA-B248-F15009BF214B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED14DFC5-7659-435E-9945-6D6112B7D735}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{624089F1-DF47-4275-A4A8-C6370B678EF5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D8BD3F5-4326-45E8-A27D-FB054CB74F4F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6B2A0136-01B6-4810-A4A2-8C3A9A701432}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B28DBFCF-AFB9-4DE5-BFDB-463E3716824B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC541BF4-40F1-44C3-A5EF-98A7A0F5EAE1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B62B799-2C8E-4C29-B073-96BB42A52E5F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A2F6CA4-4953-49A0-9097-ADFB13F8CE89}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0751F459-110C-40C6-BB24-50F6F800C0A4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B09F2166-D964-4A5A-A90F-DB889C8FE4DB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{91D17A82-EE31-4CB3-A218-718F7A72A7A4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E0A42FAB-E509-4B4E-8C5E-A6235424EE5F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{76559DB6-8620-44A0-9472-A57621F0EA53}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{50189211-DCB9-4E51-BBEF-CDFF2A25230D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C93F8F2-3151-4E78-A975-97678960E353}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D4787F79-15AB-4552-A134-3B5234C4E911}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA9DC81D-D294-44CF-BF53-97E4732A0B1C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DB6AC519-5BCC-46FF-97D6-77A87502E89E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6494,7 +6494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154E4FD6-74AC-4063-8DF8-1F697DACB55B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D8D21D-5D81-4B16-AB21-158AA1E3C536}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7769,18 +7769,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8151086A-58A2-451A-A6C7-ECE58B7738B8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57772246-6363-4D44-8EA3-0030429C9413}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{021E1713-2377-4BC3-B289-5E93494DA219}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A7FD43A0-0D26-4F60-B963-A400D42638F0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AA2F4E02-1BF2-4470-B8FD-889F8933B59B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D1669334-A850-483F-80F7-6567EE4ED7B5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BAA5F07B-CBD8-4222-9E84-86328CE070F1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{99DBE82A-0349-4B8B-ADB5-8D64419D6488}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3446C356-4F43-4697-BBCC-8343D69178D3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FFEBC697-7B95-4B92-844D-C80C349ECA9B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13ECDCB2-2CD9-4D9E-B9B7-B1903273880E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8E73D129-8130-4B54-B2C1-3EF9571D5F3A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D35A4872-E430-4623-A296-6676329F452D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0C3E1493-F308-403F-894A-53FED4073AF1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{693B7419-5AE0-4648-83BE-CE61DA17371E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{37A1C251-F2A4-408B-8FD7-4418A7330E49}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B7F1E346-F749-4188-A0A3-CE74560750B2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{41D758C5-476D-4621-B4BC-E6EE7D0044DB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C5A4882D-E7BF-40E3-8D9D-7C6057F017E0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C3DB007-F26A-4689-8CFC-1E8BD1174507}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D849032D-82FF-4176-A34B-554D33C45BAB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{029AAFF6-B34C-4ABD-894D-DA5590A9AFCB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51E40B76-4FA4-4C57-ADA8-5436B773FB67}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A7F4FC3-725A-4DCD-93A3-1B67444413A2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7793,7 +7793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1800C8D9-9829-4798-B8A5-9FDFDBAD4BA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5505F0-F4ED-43AD-891B-D8AD4A53997C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9068,18 +9068,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2A4C29C6-FB0E-44C9-8BDF-CCD4CD7D68D8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30940FC1-CAEB-4C1F-96E9-69EDD098CA04}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CCF285BA-A26D-4980-BD09-CAEF9451D364}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A57EF46E-BF83-4AEF-8C7F-242B898118BE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB54AC9A-3301-4C50-B69C-5F8CA60ABA9E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B8994A1E-6B6C-46D6-855B-740CFD3AF3A1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{48D213DC-A86A-4AED-BD21-54ADFEB5E4C8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC4D5FEF-AB43-4FD8-A50C-F0D93B1809D0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C924E769-FBAA-4D5A-B329-585DD2CC4778}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6773E4F1-3527-41D9-B7BC-A27A4D46CAB9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2A85794F-6549-4E01-9E29-88C597BD3102}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3725D023-9E5A-4053-A450-58323F0F2680}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B218F86F-B28D-4121-A491-5684349DAFED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9AC9CEFC-2B66-4C68-AE0D-E6C25557E455}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2E58856E-E984-499A-A0A2-D229A2A53217}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CB6C7837-7D6A-4B80-B8BA-017735A712E8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9BBAB884-779D-4091-AFFF-EA923B8B4EA5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{40DE202A-6CD1-426A-9FD4-1E9423B03A1A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F69B042F-F685-4B72-882C-FDC2B3A2C8B7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FEC5A17B-7367-4E9D-A680-5791FD0C29E0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2775856F-7A01-4D97-A9C7-724541588ABF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{91A8BC1D-CF0B-4BE6-B205-B3C563FC6E85}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{77243A65-B969-498A-B18B-863633C441AB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1904DC24-7732-490E-882C-1E944A7A12DE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9092,7 +9092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1B261C-C400-49D5-AE4A-411A8EE01CA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA18982E-1170-4261-8B78-FB098AE8FD51}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10367,18 +10367,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C85BCB0-B6F3-4EE5-9026-B3E1C6404BC3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9524FD0C-15C4-4C35-A6D8-29F5A6E38CDA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C98C1C74-998C-4D84-8A15-127AAA44FAF0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{530DF17A-6430-4F90-A4C9-F1BE2793AA01}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{738E2B65-B267-4AF0-826E-F7D20C4D0061}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4E79F3EA-53F5-425B-8C09-607552716601}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CB7E9D8E-DD1A-467C-BF4C-44763114E26A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C856061-495A-4715-9C6F-33825E0423BF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E2BCCCB4-17C8-4F2A-9CBE-4EC5434D86FE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C2E6AF98-DD5E-49C6-B966-C101864CDD49}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BA33AFC1-02D9-42FE-AE2E-D70A73226F96}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{28AA6D0E-A123-4AD2-BD1F-6D554A25C007}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48770BC1-4774-49E6-9B0D-0CA117F50792}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D7F355B-AD90-4C5C-8D41-767B27CAC9FD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{47D53969-6D75-4CA0-B537-185765771BFF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2AB68A8F-107B-42EB-8680-93E5C97F5C39}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{55E10BB8-FD79-46C4-B57C-A067F8138B4D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{237E3726-1080-42EB-84A6-A08239F8DB31}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12074CB8-8E2C-480B-B1A1-F4AAB2E60D60}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E314E7A-9AF5-48BE-AD17-14CBD278B02E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9120776F-B1E0-4D1A-999B-F8A2A22C2696}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2ABD8CF1-B3A9-4DE8-A6D1-92BE60C56DD9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B74F2A6-B8E8-4CB5-9E3A-9A7989C64F99}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0B58B8F2-5A4A-45A0-A5E4-5DED23262019}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10391,7 +10391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89787D8C-0F38-410A-8B45-D4FCDF131A31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3860E380-462F-4E34-90EE-DF62AB643EAA}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11666,18 +11666,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{072CCF4B-A5F1-4774-9E02-568CF860239A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D01ECDC6-6E75-4914-930F-36EA5839A867}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{72A113A4-22A6-41A0-8644-E9729C7997C5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B799DEEB-B473-4C76-AC48-E6FD83D36B29}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8FBF6C2F-50DC-4A19-8CDE-339E4816F38C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9BAE9333-42A0-4474-91E2-2C67FE3BFDFF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C636FBD-5A85-4F0A-9C80-F332D134193C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{801528B7-7937-44BE-8790-1298055876FB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{866F03F6-444A-466E-AACF-1BCC94867075}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{674687D1-1948-49F1-8EC0-4EFBBCEA0588}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD49A594-D697-4B66-B12E-44122B00A171}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FF8C9D32-DB92-45CB-9089-39B9CCC93318}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{02222E64-1D0D-449F-862D-8FB42F0A9066}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8E858FE8-D55A-4956-938E-C875A8F53DE5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0F899097-BFD9-4561-BE97-B5F1B0E183B1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9EE55E8C-1373-40B9-8480-EB0CD13CC4E5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C836A897-ED5D-4078-8826-B281109E765D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F39D3589-F6C2-41BD-8CCA-23CB3BA7DE51}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07C39B5B-03AF-439C-A55B-4A3D5F8562A2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A989033D-31E1-435D-91CA-F1BA749B9F43}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DA78276E-B61F-4CA2-AEEF-39F6E36C67AB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4AF2158F-3BA5-40F0-A69E-966B6779C02C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{07285C1D-0978-4F8D-A1FC-2E1BA4589046}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D103A295-6921-4455-931D-30148DD17BAB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11690,7 +11690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8FA28E-6E7F-42EB-8C44-4B15816A767D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C0B2A4-AEFE-4F79-936B-531B3A37D343}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12965,18 +12965,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A93FDABD-12A8-4246-A2D9-8989B8E6468B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A251E050-72FC-4654-85B3-ADA0350F1CB2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1C7B5C70-67FC-4780-B33C-1D77769B9190}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5579E632-E6BC-4056-941F-CB9AF0F918A3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{750DE813-F600-49B5-B315-18DFE17DC97B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA0C2FEF-8183-48FA-90ED-B305B34E27FE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F3F56EF-DB31-4E48-A74B-1BEB1EE7774D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E07E6D0-77A3-49DD-BF7B-75194446DF9C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5A8A29DB-144A-4F80-9000-AD9349E2F6D1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{227B8A58-204B-450A-9EDA-F940CBC7F16F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8F423C9-4F99-4E17-8161-194A03DA26F3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3571BEE5-133D-4E38-BBF9-7ADF569657B9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B3DCC8ED-F54F-451B-A62E-1183B05FFC49}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B146D136-28E8-431B-9167-2DEC1AF3C72D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{43D5E0E0-5DDF-412B-9592-1A607ACD7677}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{480D6464-AAFB-4670-BDED-217A96D1C6D3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D7901147-D7F8-4D2E-BB9B-7FEAAC04B1F7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EFC6B674-34B9-4EC9-BE02-03E4762E85F4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{776B37EA-DE0D-4C4C-A787-00672721E48F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5E34AAED-A150-48CB-99B7-48D252AE784F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D8BAF41D-8A14-4EBC-B5CB-742A8E7D4879}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{59D001E3-43A3-4BF1-89E7-D83738703EA8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{483380E1-10DA-4155-BAC1-F86DFC2E0439}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C66031AF-67B5-4155-9168-D711C7B461B5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12989,7 +12989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48348FA8-0A57-4B18-8608-3F6205A2DBA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACF9821-FAD7-4A05-9A3F-B08E214C0E49}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14264,18 +14264,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A99FB86A-0C4F-4FA6-916E-07E9AF729658}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{612F446D-2FF9-40FE-B904-B127418EFDEE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7176414D-7953-4311-BCE0-067B6B0266B6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{616BA554-EA73-4401-A504-9019A6C748BC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C6B2742-667D-401E-9099-5A28B0A84D12}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5C676FE2-0D76-47C6-B413-96761C1BDA10}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7E663ECE-F96B-4700-A65D-CE2873F7CE35}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C2D606C1-CB2A-4D50-BB59-6C4AEB3CDB48}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C9A05329-5170-45E6-A57A-1C9422839F11}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B58A33BC-A698-42C6-8C84-46BCFDE126DC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD8A9A81-9C56-483C-B1DE-9F25A913E3A1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EFF9E72F-93AB-4D8C-B19B-D4846EA68A8A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B8694DF0-B8DB-43CA-BC1D-8DC7F3B31ADE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EAD85C72-B423-4CB3-B8D7-D02774F16A67}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{93428BA8-CC77-4D48-BD0A-9BC761B123FA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D227A1F4-E5F8-4350-AAA6-7EC5EDC06692}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2838A462-CD20-4634-ACED-32FDB6273977}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4197614B-E045-435F-B91F-4561DC224AC8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6DEB726E-0629-4A8F-944E-AE41D2418FBE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{317F8B21-0B4D-4647-AEE6-34BFA5D1C992}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{02DB8E54-B9B5-428B-BB83-08E7A010CAE8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0C448AD6-AF84-4576-AE3F-46310FA3C285}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{22F9EA4E-1357-4F62-B60D-70761E4523FB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F1BFDCBB-C7D1-48B5-895A-4E89A7DC763F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14288,7 +14288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2400ECB-3A5F-41BF-975C-1736D1E73489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392BA11A-9FC2-44B1-AE16-F53CBCED2177}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15559,18 +15559,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{561CAA3A-C61C-4467-AFDE-E76B1BD5FFB1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB1367C3-F556-4E84-828A-E0D82F5A50C0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CCB3C560-3A0C-4C0D-9869-1C1B49F9140D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8DCF5C22-F8F9-435C-BAF1-8F2260A02DEA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E26729E-EF19-46F9-9907-B022D5E22493}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8E281EFF-ED46-4033-8EC8-21DC0D917FEC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{79EEDFC3-8869-4EEE-8128-2527D0D64111}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A8C50EC-D565-4B14-88E8-6A99C28DC28D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DB0B927B-2773-4874-9CBB-172027722A1B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ACFA89FD-15FA-476A-AF15-5E054F7FAC10}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F7DB93F-5615-4511-AF95-56C23AEF51B1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A310221A-19A1-4844-85F8-C629DD5ACEDC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C600CBC3-ADE1-4F20-B3C9-208C3607CBD5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B9BD5144-F1F6-4AB0-B759-D7DE12DD1C0D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2E622144-9067-4EDA-AF89-BD65D3E13B72}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A113B586-9493-44D6-A95E-6230828C0B1D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9D596A29-996F-466D-8DE1-ABBC351504D6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{103BDB3F-4964-4D6C-8D6C-4C1FD026CEE0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8ACA543A-2C98-4030-89F5-26DC88929D7B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E6B9E3A-2DDC-498C-8F54-25818DF576CA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5029127B-7B1F-4864-AD33-44D317A6A0EC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0CDEB9B6-3A9B-44FF-AD91-F45645728DE5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C05C92E3-D992-46E0-9AE2-FBED511F117E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F244E38-4137-445D-887C-1F84E79A84E1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15583,7 +15583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F892AF-7F41-42A2-ACC4-FAFFAA9D8D37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A5AB86-1E11-4A0E-BA27-91CD94CA8E59}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16854,18 +16854,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B4E0F26B-9317-40FE-AA75-338FD3BFD9E6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98656CE4-30A4-4474-99C5-2B5ECF08C1BD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{78AFC905-17C1-443B-8B85-6A7D0F9F7BF3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EFE1227A-27F2-417D-BCB3-86FCD3C81C44}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9ED4C7B1-9D5F-42AC-B9C7-180EF2EE0D77}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5E9CAAC9-3142-4002-9C3E-1A93A9DCC133}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3200C464-421C-44CF-82EE-5983B9D17C9A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5CC6CCA6-4248-4B2A-803B-ACAA98A9D57C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8BA15818-C1F5-4E50-807C-2A5C7E1E9493}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E5A63329-05B5-4F28-9F79-5C9E2DCBE2CD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{415D5B29-83A6-4671-8687-987AFF96EFB4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AE23910C-540D-4EDB-BE5A-5BDC17CFC870}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C454CD20-471C-4FA9-8C44-7B653B0D3947}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{83FE5A79-C8B0-4ED5-BFC4-4474AC94283C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1C14E2C8-77DF-41B1-94B3-B87AB7FCC43F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{151D831B-9BCD-4ECE-82A1-EB124D9DF4BA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D6DA83F0-02CF-4232-AC8B-C11713FA0D76}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{070A3D19-0111-4C22-B491-F67C8FBC6038}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B789817B-9F7D-4282-A72C-A044F16F4250}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4AC967BF-1DF4-4A8F-B563-9E2CA808EA9C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EA96D68B-68EF-452F-A558-0D1F15663A23}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ED0F58C0-2A01-4685-AF3A-EF5F094ED950}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D56102E-7A45-42C6-8AC6-F0CE02B0E7B3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{355BF971-4355-462B-A065-0331B1BCE0AD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
